--- a/Index.xlsx
+++ b/Index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -33,6 +33,33 @@
   </si>
   <si>
     <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Verification of Basic, Universal and Specific Gates</t>
+  </si>
+  <si>
+    <t>Verification of universal gates as basic and special gates</t>
+  </si>
+  <si>
+    <t>Verification and Implementation of a truth table</t>
+  </si>
+  <si>
+    <t>Implementation of Multiplexer and DeMultiplexer using gates.</t>
+  </si>
+  <si>
+    <t>Designing of Code Converters: Binary to Grey, Grey to Binary &amp; Parity Generator</t>
+  </si>
+  <si>
+    <t>Verification of Flip Flops: J&amp;K, Toggle(T), D Flip Flops</t>
+  </si>
+  <si>
+    <t>Verification of Counters: Synchronous 3-bit Up and Down Counter</t>
+  </si>
+  <si>
+    <t>Verification of Bi directional Register, Serial in Serial out, Serial In Parallel Out, Parallel In Parallel Out Registers</t>
   </si>
 </sst>
 </file>
@@ -97,35 +124,24 @@
       <top style="thin">
         <color theme="1" tint="0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,11 +149,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,193 +450,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
